--- a/spreadsheets/PolymerCost.xlsx
+++ b/spreadsheets/PolymerCost.xlsx
@@ -14,7 +14,7 @@
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -95,16 +95,13 @@
     <t xml:space="preserve">Talc</t>
   </si>
   <si>
-    <t xml:space="preserve">Kaolin Clay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barium Sulfate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dolomite</t>
+    <t xml:space="preserve">names irrelevant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">change yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">green results</t>
   </si>
   <si>
     <t xml:space="preserve">$/LB</t>
@@ -123,6 +120,9 @@
   </si>
   <si>
     <t xml:space="preserve">Price is listed in $/LB but it will work in any units, just be consistent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Even if you are not using a chemical on a line item, you must have a number there for specific gravity of that line to avoid a division by zero error.</t>
   </si>
   <si>
     <t xml:space="preserve">There are three trial formulas here.</t>
@@ -411,7 +411,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -511,7 +511,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
+      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -997,11 +997,9 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="s">
-        <v>24</v>
-      </c>
+      <c r="A16" s="9"/>
       <c r="B16" s="10" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="C16" s="11" t="n">
         <v>0.1</v>
@@ -1042,10 +1040,10 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="10" t="n">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="C17" s="11" t="n">
         <v>0.1</v>
@@ -1086,10 +1084,10 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="10" t="n">
-        <v>4.1</v>
+        <v>1</v>
       </c>
       <c r="C18" s="11" t="n">
         <v>0.1</v>
@@ -1130,10 +1128,10 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="10" t="n">
-        <v>2.85</v>
+        <v>1</v>
       </c>
       <c r="C19" s="11" t="n">
         <v>0.1</v>
@@ -1209,7 +1207,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
@@ -1232,7 +1230,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
@@ -1266,11 +1264,11 @@
     <hyperlink ref="A4" r:id="rId4" display="ohparc@ohparc.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1280,176 +1278,181 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A37"/>
+  <dimension ref="A1:A38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
         <v>60</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>